--- a/importance_scores/importance_scores_echocardiogram.xlsx
+++ b/importance_scores/importance_scores_echocardiogram.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>features</t>
   </si>
   <si>
-    <t>PFBI FuzzyCMeans</t>
+    <t>PBFI FuzzyCMeans</t>
   </si>
   <si>
     <t>SHAP FuzzyCMeans</t>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI Spectral</t>
-  </si>
-  <si>
-    <t>SHAP Spectral</t>
   </si>
   <si>
     <t>F1</t>
@@ -425,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,19 +441,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.1701737436588358</v>
@@ -474,12 +462,12 @@
         <v>5.465914556801875E-06</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.3832854906023188</v>
@@ -494,12 +482,12 @@
         <v>0.439271411809292</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.03722466070109449</v>
@@ -514,12 +502,12 @@
         <v>2.13253484602523E-06</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.1028169790154219</v>
@@ -534,12 +522,12 @@
         <v>7.780646554745088E-06</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.03989241734766288</v>
@@ -554,12 +542,12 @@
         <v>4.06216831837225E-06</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0.04955730863613267</v>
@@ -574,12 +562,12 @@
         <v>2.782647410753054E-06</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.03741920012361329</v>
@@ -594,12 +582,12 @@
         <v>1.871661651270269E-06</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0.03805069068233724</v>
@@ -614,12 +602,12 @@
         <v>4.28991475824066E-06</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0.07805981709062439</v>
@@ -634,12 +622,12 @@
         <v>5.428646957563152E-06</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0.007128253215570308</v>
@@ -654,12 +642,12 @@
         <v>2.732957278427011E-07</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0.05639143892638829</v>
